--- a/doc/task表.xlsx
+++ b/doc/task表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Name:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>LOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,52 +489,52 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -827,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -849,85 +853,85 @@
     <col min="13" max="13" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:23">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -941,15 +945,15 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -957,13 +961,13 @@
       <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -977,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:23">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -987,44 +991,53 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:23">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="36" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-    </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="42" customHeight="1">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
+    </row>
+    <row r="17" spans="1:23" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1061,16 +1074,37 @@
       <c r="P17" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="12">
         <v>2.9</v>
       </c>
@@ -1110,16 +1144,38 @@
         <f>O18</f>
         <v>3.2979318054779209E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18" s="12">
+        <v>2.9</v>
+      </c>
+      <c r="R18" s="12">
+        <v>5</v>
+      </c>
+      <c r="S18" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="T18" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="U18" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="V18" s="20">
+        <f>SUM(Q18:U18)</f>
+        <v>11.800000000000002</v>
+      </c>
+      <c r="W18" s="20">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="12">
         <v>3</v>
       </c>
@@ -1160,16 +1216,39 @@
         <f>O19+P18</f>
         <v>7.4902179988820566E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19" s="12">
+        <v>3</v>
+      </c>
+      <c r="R19" s="12">
+        <v>3</v>
+      </c>
+      <c r="S19" s="12">
+        <v>3</v>
+      </c>
+      <c r="T19" s="12">
+        <v>3</v>
+      </c>
+      <c r="U19" s="12">
+        <v>3</v>
+      </c>
+      <c r="V19" s="20">
+        <f>SUM(Q19:U19)</f>
+        <v>15</v>
+      </c>
+      <c r="W19" s="20">
+        <f>W18+V19</f>
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="12">
         <v>4.5</v>
       </c>
@@ -1210,16 +1289,23 @@
         <f t="shared" ref="P20:P38" si="2">O20+P19</f>
         <v>0.15036333147009501</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="12">
         <v>3.5</v>
       </c>
@@ -1260,16 +1346,23 @@
         <f t="shared" si="2"/>
         <v>0.20346562325321407</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="8">
         <v>3</v>
       </c>
@@ -1310,16 +1403,23 @@
         <f t="shared" si="2"/>
         <v>0.24538848518725542</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="8">
         <v>4</v>
       </c>
@@ -1360,16 +1460,23 @@
         <f t="shared" si="2"/>
         <v>0.30128563443264389</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="8">
         <v>4</v>
       </c>
@@ -1410,16 +1517,23 @@
         <f t="shared" si="2"/>
         <v>0.35718278367803236</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="8">
         <v>2</v>
       </c>
@@ -1460,16 +1574,23 @@
         <f t="shared" si="2"/>
         <v>0.38513135830072659</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="8">
         <v>2</v>
       </c>
@@ -1510,16 +1631,23 @@
         <f t="shared" si="2"/>
         <v>0.41307993292342082</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="8">
         <v>2</v>
       </c>
@@ -1560,16 +1688,23 @@
         <f t="shared" si="2"/>
         <v>0.44102850754611506</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="12">
         <v>2</v>
       </c>
@@ -1610,16 +1745,23 @@
         <f t="shared" si="2"/>
         <v>0.46897708216880929</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="28"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="12">
         <v>4</v>
       </c>
@@ -1660,16 +1802,23 @@
         <f t="shared" si="2"/>
         <v>0.52487423141419776</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="12">
         <v>10</v>
       </c>
@@ -1710,16 +1859,23 @@
         <f t="shared" si="2"/>
         <v>0.66461710452766898</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="4">
         <v>15</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="12">
         <v>2.5</v>
       </c>
@@ -1756,16 +1912,23 @@
         <f t="shared" si="2"/>
         <v>0.69955282280603681</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="3">
         <v>16</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="8">
         <v>0.5</v>
       </c>
@@ -1802,16 +1965,23 @@
         <f t="shared" si="2"/>
         <v>0.70653996646171036</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="8">
         <v>2.5</v>
       </c>
@@ -1848,16 +2018,23 @@
         <f t="shared" si="2"/>
         <v>0.74147568474007819</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="8">
         <v>4</v>
       </c>
@@ -1894,16 +2071,23 @@
         <f t="shared" si="2"/>
         <v>0.79737283398546666</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="8">
         <v>4</v>
       </c>
@@ -1940,16 +2124,23 @@
         <f t="shared" si="2"/>
         <v>0.85326998323085512</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="8">
         <v>3</v>
       </c>
@@ -1986,16 +2177,23 @@
         <f t="shared" si="2"/>
         <v>0.8951928451648965</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="8">
         <v>3</v>
       </c>
@@ -2032,16 +2230,23 @@
         <f t="shared" si="2"/>
         <v>0.93711570709893788</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="3">
         <v>22</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="12">
         <v>4.5</v>
       </c>
@@ -2082,16 +2287,23 @@
         <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="4">
         <v>23</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="12">
         <f>SUM(E18:E38)</f>
         <v>70.900000000000006</v>
@@ -2119,12 +2331,19 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="20"/>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="15"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2138,11 +2357,11 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:23">
       <c r="A41" s="10"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -2156,11 +2375,11 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:23">
       <c r="A42" s="15"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -2174,11 +2393,11 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:23">
       <c r="A43" s="10"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2192,11 +2411,11 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:23">
       <c r="A44" s="10"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2210,11 +2429,11 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:23">
       <c r="A45" s="10"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2228,11 +2447,11 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:23">
       <c r="A46" s="10"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -2246,11 +2465,11 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:23">
       <c r="A47" s="10"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -2265,9 +2484,37 @@
       <c r="P47" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:D21"/>
+    <mergeCell ref="Q16:W16"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B25:D25"/>
@@ -2277,33 +2524,6 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task表.xlsx
+++ b/doc/task表.xlsx
@@ -489,17 +489,41 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,32 +534,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,7 +834,7 @@
   <dimension ref="A1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -854,84 +854,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -949,11 +949,11 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -961,10 +961,10 @@
       <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="30" t="s">
+      <c r="M9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="30"/>
+      <c r="N9" s="37"/>
       <c r="O9" s="2"/>
     </row>
     <row r="11" spans="1:23">
@@ -997,37 +997,37 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="22" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="29" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="22" t="s">
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="24"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="28"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A17" s="13" t="s">
@@ -1100,11 +1100,11 @@
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="12">
         <v>2.9</v>
       </c>
@@ -1171,11 +1171,11 @@
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="12">
         <v>3</v>
       </c>
@@ -1244,11 +1244,11 @@
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="12">
         <v>4.5</v>
       </c>
@@ -1289,23 +1289,39 @@
         <f t="shared" ref="P20:P38" si="2">O20+P19</f>
         <v>0.15036333147009501</v>
       </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
+      <c r="Q20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="R20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="S20" s="12">
+        <v>9</v>
+      </c>
+      <c r="T20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="U20" s="12">
+        <v>4.5</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" ref="V20:V29" si="3">SUM(Q20:U20)</f>
+        <v>27</v>
+      </c>
+      <c r="W20" s="20">
+        <f t="shared" ref="W20:W29" si="4">W19+V20</f>
+        <v>53.8</v>
+      </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" s="4">
         <v>4</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="12">
         <v>3.5</v>
       </c>
@@ -1346,23 +1362,39 @@
         <f t="shared" si="2"/>
         <v>0.20346562325321407</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
+      <c r="Q21" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="R21" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="S21" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="T21" s="12">
+        <v>5</v>
+      </c>
+      <c r="U21" s="12">
+        <v>3.5</v>
+      </c>
+      <c r="V21" s="20">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="W21" s="20">
+        <f t="shared" si="4"/>
+        <v>72.8</v>
+      </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="8">
         <v>3</v>
       </c>
@@ -1403,23 +1435,39 @@
         <f t="shared" si="2"/>
         <v>0.24538848518725542</v>
       </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
+      <c r="Q22" s="8">
+        <v>3</v>
+      </c>
+      <c r="R22" s="8">
+        <v>3</v>
+      </c>
+      <c r="S22" s="8">
+        <v>3</v>
+      </c>
+      <c r="T22" s="8">
+        <v>3</v>
+      </c>
+      <c r="U22" s="8">
+        <v>3</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="W22" s="20">
+        <f t="shared" si="4"/>
+        <v>87.8</v>
+      </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="8">
         <v>4</v>
       </c>
@@ -1460,23 +1508,39 @@
         <f t="shared" si="2"/>
         <v>0.30128563443264389</v>
       </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
+      <c r="Q23" s="8">
+        <v>4</v>
+      </c>
+      <c r="R23" s="8">
+        <v>4</v>
+      </c>
+      <c r="S23" s="8">
+        <v>4</v>
+      </c>
+      <c r="T23" s="8">
+        <v>4</v>
+      </c>
+      <c r="U23" s="8">
+        <v>4</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="4"/>
+        <v>107.8</v>
+      </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
       <c r="E24" s="8">
         <v>4</v>
       </c>
@@ -1493,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ref="J24:J38" si="3">SUM(E24:I24)</f>
+        <f t="shared" ref="J24:J38" si="5">SUM(E24:I24)</f>
         <v>20</v>
       </c>
       <c r="K24" s="20">
@@ -1517,23 +1581,39 @@
         <f t="shared" si="2"/>
         <v>0.35718278367803236</v>
       </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
+      <c r="Q24" s="8">
+        <v>4</v>
+      </c>
+      <c r="R24" s="8">
+        <v>4</v>
+      </c>
+      <c r="S24" s="8">
+        <v>4</v>
+      </c>
+      <c r="T24" s="8">
+        <v>4</v>
+      </c>
+      <c r="U24" s="8">
+        <v>4</v>
+      </c>
+      <c r="V24" s="20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="W24" s="20">
+        <f t="shared" si="4"/>
+        <v>127.8</v>
+      </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" s="4">
         <v>9</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="8">
         <v>2</v>
       </c>
@@ -1550,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K25" s="20">
@@ -1574,23 +1654,39 @@
         <f t="shared" si="2"/>
         <v>0.38513135830072659</v>
       </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
+      <c r="Q25" s="8">
+        <v>2</v>
+      </c>
+      <c r="R25" s="12">
+        <v>2</v>
+      </c>
+      <c r="S25" s="12">
+        <v>2</v>
+      </c>
+      <c r="T25" s="12">
+        <v>2</v>
+      </c>
+      <c r="U25" s="12">
+        <v>2</v>
+      </c>
+      <c r="V25" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W25" s="20">
+        <f t="shared" si="4"/>
+        <v>137.80000000000001</v>
+      </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" s="4">
         <v>10</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="8">
         <v>2</v>
       </c>
@@ -1607,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K26" s="20">
@@ -1631,23 +1727,39 @@
         <f t="shared" si="2"/>
         <v>0.41307993292342082</v>
       </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
+      <c r="Q26" s="8">
+        <v>2</v>
+      </c>
+      <c r="R26" s="8">
+        <v>2</v>
+      </c>
+      <c r="S26" s="8">
+        <v>2</v>
+      </c>
+      <c r="T26" s="8">
+        <v>2</v>
+      </c>
+      <c r="U26" s="8">
+        <v>2</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W26" s="20">
+        <f t="shared" si="4"/>
+        <v>147.80000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" s="4">
         <v>11</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="8">
         <v>2</v>
       </c>
@@ -1664,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K27" s="20">
@@ -1688,23 +1800,39 @@
         <f t="shared" si="2"/>
         <v>0.44102850754611506</v>
       </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
+      <c r="Q27" s="8">
+        <v>2</v>
+      </c>
+      <c r="R27" s="8">
+        <v>2</v>
+      </c>
+      <c r="S27" s="8">
+        <v>2</v>
+      </c>
+      <c r="T27" s="8">
+        <v>2</v>
+      </c>
+      <c r="U27" s="8">
+        <v>2</v>
+      </c>
+      <c r="V27" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W27" s="20">
+        <f t="shared" si="4"/>
+        <v>157.80000000000001</v>
+      </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="12">
         <v>2</v>
       </c>
@@ -1721,7 +1849,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="K28" s="20">
@@ -1745,23 +1873,39 @@
         <f t="shared" si="2"/>
         <v>0.46897708216880929</v>
       </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
+      <c r="Q28" s="12">
+        <v>2</v>
+      </c>
+      <c r="R28" s="12">
+        <v>2</v>
+      </c>
+      <c r="S28" s="12">
+        <v>2</v>
+      </c>
+      <c r="T28" s="12">
+        <v>2</v>
+      </c>
+      <c r="U28" s="12">
+        <v>2</v>
+      </c>
+      <c r="V28" s="20">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="W28" s="20">
+        <f t="shared" si="4"/>
+        <v>167.8</v>
+      </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" s="4">
         <v>13</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="12">
         <v>4</v>
       </c>
@@ -1778,7 +1922,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K29" s="20">
@@ -1802,23 +1946,39 @@
         <f t="shared" si="2"/>
         <v>0.52487423141419776</v>
       </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
+      <c r="Q29" s="12">
+        <v>4</v>
+      </c>
+      <c r="R29" s="12">
+        <v>4</v>
+      </c>
+      <c r="S29" s="12">
+        <v>4</v>
+      </c>
+      <c r="T29" s="12">
+        <v>4</v>
+      </c>
+      <c r="U29" s="12">
+        <v>4</v>
+      </c>
+      <c r="V29" s="20">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="W29" s="20">
+        <f t="shared" si="4"/>
+        <v>187.8</v>
+      </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="12">
         <v>10</v>
       </c>
@@ -1835,7 +1995,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="K30" s="20">
@@ -1871,11 +2031,11 @@
       <c r="A31" s="4">
         <v>15</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="12">
         <v>2.5</v>
       </c>
@@ -1892,7 +2052,7 @@
         <v>2.5</v>
       </c>
       <c r="J31" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K31" s="20">
@@ -1924,11 +2084,11 @@
       <c r="A32" s="3">
         <v>16</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
       <c r="E32" s="8">
         <v>0.5</v>
       </c>
@@ -1945,7 +2105,7 @@
         <v>0.5</v>
       </c>
       <c r="J32" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="K32" s="20">
@@ -1977,11 +2137,11 @@
       <c r="A33" s="4">
         <v>17</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
       <c r="E33" s="8">
         <v>2.5</v>
       </c>
@@ -1998,7 +2158,7 @@
         <v>2.5</v>
       </c>
       <c r="J33" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="K33" s="20">
@@ -2030,11 +2190,11 @@
       <c r="A34" s="4">
         <v>18</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
       <c r="E34" s="8">
         <v>4</v>
       </c>
@@ -2051,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="J34" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K34" s="20">
@@ -2083,11 +2243,11 @@
       <c r="A35" s="4">
         <v>19</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="8">
         <v>4</v>
       </c>
@@ -2104,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K35" s="20">
@@ -2136,11 +2296,11 @@
       <c r="A36" s="4">
         <v>20</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
       <c r="E36" s="8">
         <v>3</v>
       </c>
@@ -2157,7 +2317,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K36" s="20">
@@ -2189,11 +2349,11 @@
       <c r="A37" s="4">
         <v>21</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="8">
         <v>3</v>
       </c>
@@ -2210,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="K37" s="20">
@@ -2242,11 +2402,11 @@
       <c r="A38" s="3">
         <v>22</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="12">
         <v>4.5</v>
       </c>
@@ -2263,7 +2423,7 @@
         <v>4.5</v>
       </c>
       <c r="J38" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.5</v>
       </c>
       <c r="K38" s="20">
@@ -2299,11 +2459,11 @@
       <c r="A39" s="4">
         <v>23</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="12">
         <f>SUM(E18:E38)</f>
         <v>70.900000000000006</v>
@@ -2341,9 +2501,9 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="15"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2359,9 +2519,9 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="10"/>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -2377,9 +2537,9 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="15"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -2395,9 +2555,9 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="10"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2413,9 +2573,9 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="10"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2431,9 +2591,9 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="10"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2449,9 +2609,9 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="10"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -2467,9 +2627,9 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="10"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -2485,6 +2645,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B46:D46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B40:D40"/>
@@ -2493,37 +2683,7 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
     <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/task表.xlsx
+++ b/doc/task表.xlsx
@@ -498,44 +498,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -833,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -854,84 +854,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -949,11 +949,11 @@
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -961,10 +961,10 @@
       <c r="L9" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="32"/>
       <c r="O9" s="2"/>
     </row>
     <row r="11" spans="1:23">
@@ -997,47 +997,47 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="30" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="28"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="11" t="s">
         <v>17</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>27</v>
       </c>
       <c r="K20" s="20">
-        <f t="shared" ref="K20:K38" si="1">K19+J20</f>
+        <f t="shared" ref="K20:K37" si="1">K19+J20</f>
         <v>53.8</v>
       </c>
       <c r="L20" s="4" t="s">
@@ -1305,11 +1305,11 @@
         <v>4.5</v>
       </c>
       <c r="V20" s="20">
-        <f t="shared" ref="V20:V29" si="3">SUM(Q20:U20)</f>
+        <f t="shared" ref="V20:V38" si="3">SUM(Q20:U20)</f>
         <v>27</v>
       </c>
       <c r="W20" s="20">
-        <f t="shared" ref="W20:W29" si="4">W19+V20</f>
+        <f t="shared" ref="W20:W38" si="4">W19+V20</f>
         <v>53.8</v>
       </c>
     </row>
@@ -1393,8 +1393,8 @@
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
       <c r="E22" s="8">
         <v>3</v>
       </c>
@@ -1466,8 +1466,8 @@
       <c r="B23" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
       <c r="E23" s="8">
         <v>4</v>
       </c>
@@ -1539,8 +1539,8 @@
       <c r="B24" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="8">
         <v>4</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="20">
-        <f t="shared" ref="J24:J38" si="5">SUM(E24:I24)</f>
+        <f t="shared" ref="J24:J37" si="5">SUM(E24:I24)</f>
         <v>20</v>
       </c>
       <c r="K24" s="20">
@@ -1612,8 +1612,8 @@
       <c r="B25" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="8">
         <v>2</v>
       </c>
@@ -1685,8 +1685,8 @@
       <c r="B26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="8">
         <v>2</v>
       </c>
@@ -1758,8 +1758,8 @@
       <c r="B27" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="8">
         <v>2</v>
       </c>
@@ -2019,13 +2019,29 @@
         <f t="shared" si="2"/>
         <v>0.66461710452766898</v>
       </c>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
+      <c r="Q30" s="12">
+        <v>5</v>
+      </c>
+      <c r="R30" s="12">
+        <v>6</v>
+      </c>
+      <c r="S30" s="12">
+        <v>2</v>
+      </c>
+      <c r="T30" s="12">
+        <v>6</v>
+      </c>
+      <c r="U30" s="12">
+        <v>2</v>
+      </c>
+      <c r="V30" s="20">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="W30" s="20">
+        <f t="shared" si="4"/>
+        <v>208.8</v>
+      </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" s="4">
@@ -2072,13 +2088,29 @@
         <f t="shared" si="2"/>
         <v>0.69955282280603681</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
+      <c r="Q31" s="12">
+        <v>3</v>
+      </c>
+      <c r="R31" s="12">
+        <v>6</v>
+      </c>
+      <c r="S31" s="12">
+        <v>3</v>
+      </c>
+      <c r="T31" s="12">
+        <v>6</v>
+      </c>
+      <c r="U31" s="12">
+        <v>5</v>
+      </c>
+      <c r="V31" s="20">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="W31" s="20">
+        <f t="shared" si="4"/>
+        <v>231.8</v>
+      </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" s="3">
@@ -2087,8 +2119,8 @@
       <c r="B32" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="28"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="8">
         <v>0.5</v>
       </c>
@@ -2125,13 +2157,29 @@
         <f t="shared" si="2"/>
         <v>0.70653996646171036</v>
       </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
+      <c r="Q32" s="8">
+        <v>7</v>
+      </c>
+      <c r="R32" s="8">
+        <v>8</v>
+      </c>
+      <c r="S32" s="8">
+        <v>9</v>
+      </c>
+      <c r="T32" s="8">
+        <v>8</v>
+      </c>
+      <c r="U32" s="8">
+        <v>7</v>
+      </c>
+      <c r="V32" s="20">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="W32" s="20">
+        <f t="shared" si="4"/>
+        <v>270.8</v>
+      </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" s="4">
@@ -2140,8 +2188,8 @@
       <c r="B33" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="28"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
       <c r="E33" s="8">
         <v>2.5</v>
       </c>
@@ -2178,13 +2226,29 @@
         <f t="shared" si="2"/>
         <v>0.74147568474007819</v>
       </c>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
+      <c r="Q33" s="8">
+        <v>4</v>
+      </c>
+      <c r="R33" s="8">
+        <v>9</v>
+      </c>
+      <c r="S33" s="8">
+        <v>8</v>
+      </c>
+      <c r="T33" s="8">
+        <v>4</v>
+      </c>
+      <c r="U33" s="8">
+        <v>8</v>
+      </c>
+      <c r="V33" s="20">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="W33" s="20">
+        <f t="shared" si="4"/>
+        <v>303.8</v>
+      </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" s="4">
@@ -2193,8 +2257,8 @@
       <c r="B34" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
       <c r="E34" s="8">
         <v>4</v>
       </c>
@@ -2231,13 +2295,29 @@
         <f t="shared" si="2"/>
         <v>0.79737283398546666</v>
       </c>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
+      <c r="Q34" s="8">
+        <v>7</v>
+      </c>
+      <c r="R34" s="8">
+        <v>8</v>
+      </c>
+      <c r="S34" s="8">
+        <v>4</v>
+      </c>
+      <c r="T34" s="8">
+        <v>2</v>
+      </c>
+      <c r="U34" s="8">
+        <v>5</v>
+      </c>
+      <c r="V34" s="20">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="W34" s="20">
+        <f t="shared" si="4"/>
+        <v>329.8</v>
+      </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="4">
@@ -2246,8 +2326,8 @@
       <c r="B35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="28"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
       <c r="E35" s="8">
         <v>4</v>
       </c>
@@ -2284,13 +2364,29 @@
         <f t="shared" si="2"/>
         <v>0.85326998323085512</v>
       </c>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
+      <c r="Q35" s="8">
+        <v>6</v>
+      </c>
+      <c r="R35" s="8">
+        <v>2</v>
+      </c>
+      <c r="S35" s="8">
+        <v>6</v>
+      </c>
+      <c r="T35" s="8">
+        <v>7</v>
+      </c>
+      <c r="U35" s="8">
+        <v>6</v>
+      </c>
+      <c r="V35" s="20">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="W35" s="20">
+        <f t="shared" si="4"/>
+        <v>356.8</v>
+      </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" s="4">
@@ -2299,8 +2395,8 @@
       <c r="B36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="28"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="8">
         <v>3</v>
       </c>
@@ -2337,13 +2433,29 @@
         <f t="shared" si="2"/>
         <v>0.8951928451648965</v>
       </c>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
+      <c r="Q36" s="8">
+        <v>7</v>
+      </c>
+      <c r="R36" s="8">
+        <v>3</v>
+      </c>
+      <c r="S36" s="8">
+        <v>5</v>
+      </c>
+      <c r="T36" s="8">
+        <v>6</v>
+      </c>
+      <c r="U36" s="8">
+        <v>2</v>
+      </c>
+      <c r="V36" s="20">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="W36" s="20">
+        <f t="shared" si="4"/>
+        <v>379.8</v>
+      </c>
     </row>
     <row r="37" spans="1:23">
       <c r="A37" s="4">
@@ -2352,8 +2464,8 @@
       <c r="B37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="28"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="8">
         <v>3</v>
       </c>
@@ -2390,13 +2502,29 @@
         <f t="shared" si="2"/>
         <v>0.93711570709893788</v>
       </c>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
+      <c r="Q37" s="8">
+        <v>8</v>
+      </c>
+      <c r="R37" s="8">
+        <v>7</v>
+      </c>
+      <c r="S37" s="8">
+        <v>6</v>
+      </c>
+      <c r="T37" s="8">
+        <v>4</v>
+      </c>
+      <c r="U37" s="8">
+        <v>7</v>
+      </c>
+      <c r="V37" s="20">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="W37" s="20">
+        <f t="shared" si="4"/>
+        <v>411.8</v>
+      </c>
     </row>
     <row r="38" spans="1:23">
       <c r="A38" s="3">
@@ -2423,11 +2551,11 @@
         <v>4.5</v>
       </c>
       <c r="J38" s="20">
-        <f t="shared" si="5"/>
+        <f>SUM(E38:I38)</f>
         <v>22.5</v>
       </c>
       <c r="K38" s="20">
-        <f t="shared" si="1"/>
+        <f>K37+J38</f>
         <v>357.8</v>
       </c>
       <c r="L38" s="4" t="s">
@@ -2447,13 +2575,29 @@
         <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
-      <c r="T38" s="12"/>
-      <c r="U38" s="12"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
+      <c r="Q38" s="12">
+        <v>2</v>
+      </c>
+      <c r="R38" s="12">
+        <v>9</v>
+      </c>
+      <c r="S38" s="12">
+        <v>9</v>
+      </c>
+      <c r="T38" s="12">
+        <v>9</v>
+      </c>
+      <c r="U38" s="12">
+        <v>9</v>
+      </c>
+      <c r="V38" s="20">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="W38" s="20">
+        <f t="shared" si="4"/>
+        <v>449.8</v>
+      </c>
     </row>
     <row r="39" spans="1:23">
       <c r="A39" s="4">
@@ -2465,45 +2609,70 @@
       <c r="C39" s="23"/>
       <c r="D39" s="24"/>
       <c r="E39" s="12">
-        <f>SUM(E18:E38)</f>
+        <f t="shared" ref="E39:J39" si="6">SUM(E18:E38)</f>
         <v>70.900000000000006</v>
       </c>
       <c r="F39" s="12">
-        <f>SUM(F18:F38)</f>
+        <f t="shared" si="6"/>
         <v>73</v>
       </c>
       <c r="G39" s="12">
-        <f>SUM(G18:G38)</f>
+        <f t="shared" si="6"/>
         <v>73.8</v>
       </c>
       <c r="H39" s="12">
-        <f>SUM(H18:H38)</f>
+        <f t="shared" si="6"/>
         <v>70.8</v>
       </c>
       <c r="I39" s="12">
-        <f>SUM(I18:I38)</f>
+        <f t="shared" si="6"/>
         <v>69.3</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="20"/>
+      <c r="J39" s="12">
+        <f t="shared" si="6"/>
+        <v>357.8</v>
+      </c>
+      <c r="K39" s="12">
+        <v>357.8</v>
+      </c>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12">
+        <f t="shared" ref="Q39:U39" si="7">SUM(Q18:Q38)</f>
+        <v>85.9</v>
+      </c>
+      <c r="R39" s="12">
+        <f t="shared" si="7"/>
+        <v>97</v>
+      </c>
+      <c r="S39" s="12">
+        <f t="shared" si="7"/>
+        <v>91.8</v>
+      </c>
+      <c r="T39" s="12">
+        <f t="shared" si="7"/>
+        <v>88.8</v>
+      </c>
+      <c r="U39" s="12">
+        <f t="shared" si="7"/>
+        <v>86.3</v>
+      </c>
+      <c r="V39" s="12">
+        <f>SUM(V18:V38)</f>
+        <v>449.8</v>
+      </c>
+      <c r="W39" s="20">
+        <v>449.8</v>
+      </c>
     </row>
     <row r="40" spans="1:23">
       <c r="A40" s="15"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2519,9 +2688,9 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" s="10"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -2537,9 +2706,9 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" s="15"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -2555,9 +2724,9 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" s="10"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2573,9 +2742,9 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" s="10"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2591,9 +2760,9 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" s="10"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2609,9 +2778,9 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" s="10"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -2627,9 +2796,9 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" s="10"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
@@ -2645,6 +2814,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B18:D18"/>
@@ -2654,36 +2853,6 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:K16"/>
     <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B39:D39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
